--- a/Results/Categorization/plsa-partial-ner-fasttext-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-fasttext-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1813">
   <si>
     <t>id</t>
   </si>
@@ -4036,7 +4036,7 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
@@ -4081,10 +4081,10 @@
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
@@ -4126,39 +4126,42 @@
     <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
     <t>PRICES|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
     <t>PRICES|FOOD|AMBIENCE|SERVICE</t>
   </si>
   <si>
@@ -4174,267 +4177,279 @@
     <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|||SERVICE|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|SERVICE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|||SERVICE|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|PRICES|FOOD|SERVICE</t>
   </si>
   <si>
@@ -4453,7 +4468,7 @@
     <t>good|wine</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
   </si>
   <si>
     <t>rude</t>
@@ -4504,7 +4519,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4525,10 +4540,10 @@
     <t>nice|best|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|great|great|great|price|even|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|great|great|great|price|food|reasonable</t>
   </si>
   <si>
     <t>lava|cake|dessert</t>
@@ -4591,7 +4606,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4603,6 +4618,9 @@
     <t>service|great|pizza</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>place|food</t>
   </si>
   <si>
@@ -4648,10 +4666,10 @@
     <t>make</t>
   </si>
   <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>price|$8.00...just</t>
+    <t>moules|lobster|ravioli</t>
+  </si>
+  <si>
+    <t>price|$8.00!-</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4681,9 +4699,6 @@
     <t>tuna|wasabe|potatoes</t>
   </si>
   <si>
-    <t>even|atmosphere</t>
-  </si>
-  <si>
     <t>service|great|great|food</t>
   </si>
   <si>
@@ -4696,7 +4711,7 @@
     <t>staff|best|wait</t>
   </si>
   <si>
-    <t>food|restaurant|best</t>
+    <t>food|restaurant|best|salad</t>
   </si>
   <si>
     <t>would|would</t>
@@ -4717,7 +4732,7 @@
     <t>though|restaurant</t>
   </si>
   <si>
-    <t>though|even|restaurant|always</t>
+    <t>though|restaurant|always</t>
   </si>
   <si>
     <t>good|though|food</t>
@@ -4726,6 +4741,9 @@
     <t>great|decor</t>
   </si>
   <si>
+    <t>atmosphere|salad</t>
+  </si>
+  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4741,13 +4759,16 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>roll|mayo</t>
+    <t>lobster|roll|mayo|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
+    <t>scallion|pancakes|dumplings</t>
   </si>
   <si>
     <t>service|good|restaurant</t>
@@ -4765,7 +4786,10 @@
     <t>food|restaurant|delicious</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>delicious|salad</t>
   </si>
   <si>
     <t>like|atmosphere</t>
@@ -4774,7 +4798,7 @@
     <t>good|though</t>
   </si>
   <si>
-    <t>great|though</t>
+    <t>great|though|salad</t>
   </si>
   <si>
     <t>good|really</t>
@@ -4786,7 +4810,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18</t>
+    <t>food|menu|$18!-</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4795,237 +4819,240 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6</t>
+    <t>price|reasonable|dish|$3-6!-</t>
   </si>
   <si>
     <t>great|well</t>
   </si>
   <si>
+    <t>nice|salad</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>place|food|staff|delicious</t>
+  </si>
+  <si>
+    <t>even|make</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>place|wine|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>place|good|pizza|nice</t>
+  </si>
+  <si>
+    <t>though|delicious</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>like|like</t>
+  </si>
+  <si>
+    <t>service|food|restaurant</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>place|service|pizza|wine|really</t>
+  </si>
+  <si>
+    <t>price|restaurant|wine|menu</t>
+  </si>
+  <si>
+    <t>wine|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>food|make</t>
+  </si>
+  <si>
+    <t>meals|bland|rosemary|orange|flavoring</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|nice|staff|would|wait|never</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|never|delicious</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>service|great|great|food|restaurant|atmosphere</t>
+  </si>
+  <si>
+    <t>dining|room|music</t>
+  </si>
+  <si>
+    <t>service|staff|menu</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>place|service|great|special</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
+  </si>
+  <si>
+    <t>really|make</t>
+  </si>
+  <si>
+    <t>service|though|food|wait</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>like|atmosphere|special</t>
+  </si>
+  <si>
+    <t>staff|well</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>price|food|wine</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>rude|wait</t>
+  </si>
+  <si>
+    <t>place|service|price|price|food|like|make|worth</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>service|though|nice|decor</t>
+  </si>
+  <si>
+    <t>though|nice|staff|wait</t>
+  </si>
+  <si>
+    <t>service|rude</t>
+  </si>
+  <si>
+    <t>rude|restaurant</t>
+  </si>
+  <si>
+    <t>like|$7!-</t>
+  </si>
+  <si>
+    <t>seats|wall|benches</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>friendly|staff|wait</t>
+  </si>
+  <si>
+    <t>service|good|good</t>
+  </si>
+  <si>
+    <t>price|restaurant</t>
+  </si>
+  <si>
+    <t>good|price|though|even|food</t>
+  </si>
+  <si>
+    <t>good|price|though|$24!-</t>
+  </si>
+  <si>
+    <t>special|wait</t>
+  </si>
+  <si>
+    <t>food|nice|wait</t>
+  </si>
+  <si>
+    <t>great|$10!-</t>
+  </si>
+  <si>
+    <t>price|wine</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would</t>
+  </si>
+  <si>
+    <t>place|great|great|good|food</t>
+  </si>
+  <si>
+    <t>staff|like|make|wait</t>
+  </si>
+  <si>
+    <t>service|wait</t>
+  </si>
+  <si>
+    <t>good|wait|wait</t>
+  </si>
+  <si>
+    <t>place|great|good|staff|would</t>
+  </si>
+  <si>
+    <t>great|price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>great|price|food</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>place|food|staff|delicious</t>
-  </si>
-  <si>
-    <t>even|make</t>
-  </si>
-  <si>
-    <t>service|good|food</t>
-  </si>
-  <si>
-    <t>service|service|good|good|food</t>
-  </si>
-  <si>
-    <t>place|wine|atmosphere|dish</t>
-  </si>
-  <si>
-    <t>place|good|pizza|nice</t>
-  </si>
-  <si>
-    <t>though|delicious</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>like|like</t>
-  </si>
-  <si>
-    <t>service|food|restaurant</t>
-  </si>
-  <si>
-    <t>menu|dish</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine|really</t>
-  </si>
-  <si>
-    <t>price|restaurant|wine|menu</t>
-  </si>
-  <si>
-    <t>wine|$70+</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>food|make</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|nice|staff|would|wait|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never|delicious</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|great|food|restaurant|atmosphere</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff|menu</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>place|service|great|special</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
-  </si>
-  <si>
-    <t>really|make</t>
-  </si>
-  <si>
-    <t>service|though|food|wait</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>service|great|nice</t>
-  </si>
-  <si>
-    <t>like|atmosphere|special</t>
-  </si>
-  <si>
-    <t>staff|well</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|great|always</t>
-  </si>
-  <si>
-    <t>rude|wait</t>
-  </si>
-  <si>
-    <t>place|service|price|price|food|like|make|worth</t>
-  </si>
-  <si>
-    <t>best|dish</t>
-  </si>
-  <si>
-    <t>service|though|nice|decor</t>
-  </si>
-  <si>
-    <t>though|nice|staff|wait</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>rude|restaurant</t>
-  </si>
-  <si>
-    <t>like|$7)</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff|wait</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>price|restaurant</t>
-  </si>
-  <si>
-    <t>good|price|though|even|food</t>
-  </si>
-  <si>
-    <t>good|price|though|$24</t>
-  </si>
-  <si>
-    <t>special|wait</t>
-  </si>
-  <si>
-    <t>food|nice|wait</t>
-  </si>
-  <si>
-    <t>great|$10.</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|would</t>
-  </si>
-  <si>
-    <t>place|great|great|good|food</t>
-  </si>
-  <si>
-    <t>staff|like|make|wait</t>
-  </si>
-  <si>
-    <t>service|wait</t>
-  </si>
-  <si>
-    <t>good|wait|wait</t>
-  </si>
-  <si>
-    <t>place|great|good|staff|would</t>
-  </si>
-  <si>
-    <t>great|price|food|really</t>
-  </si>
-  <si>
-    <t>service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
@@ -5041,7 +5068,7 @@
     <t>garden|area|herb|garden</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>nice|wait</t>
@@ -5053,22 +5080,19 @@
     <t>price|pizza|even</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>place|great</t>
   </si>
   <si>
     <t>place|price|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like</t>
+    <t>great|like|100 dollar!-</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5080,13 +5104,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>staff|wait|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5134,9 +5158,6 @@
     <t>place|great|great|price|food|decor</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>great|good|price|food|wine|reasonable</t>
   </si>
   <si>
@@ -5149,7 +5170,7 @@
     <t>good|atmosphere</t>
   </si>
   <si>
-    <t>jukebox|everything|opera|strokes</t>
+    <t>jukebox|opera|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5158,7 +5179,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>great|price|food|reasonable</t>
@@ -5167,7 +5188,7 @@
     <t>good|price|food</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|great|good|price|food</t>
@@ -5188,16 +5209,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60</t>
+    <t>good|though|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5212,19 +5233,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5248,10 +5269,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500</t>
+    <t>service|price|dish|$10!-</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5263,19 +5284,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5284,13 +5302,13 @@
     <t>would|dinner</t>
   </si>
   <si>
-    <t>restaurant|never|money.</t>
-  </si>
-  <si>
-    <t>place|price|restaurant|would|$25),</t>
-  </si>
-  <si>
-    <t>place|food|$</t>
+    <t>restaurant|never</t>
+  </si>
+  <si>
+    <t>place|price|restaurant|would|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5299,34 +5317,37 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>menu|$29</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>menu|$29!-</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500</t>
-  </si>
-  <si>
-    <t>service|great|good</t>
+    <t>service|rude|even|well|$500!-</t>
+  </si>
+  <si>
+    <t>service|great|good|salad</t>
   </si>
   <si>
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24</t>
+    <t>restaurant|never|$24!-</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
+  </si>
+  <si>
+    <t>price|salad</t>
   </si>
   <si>
     <t>negative</t>
@@ -5838,10 +5859,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="H2" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5867,7 +5888,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5890,10 +5911,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="H4" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5916,10 +5937,10 @@
         <v>1276</v>
       </c>
       <c r="G5" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="H5" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5942,10 +5963,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="H6" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5968,10 +5989,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="H7" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5994,10 +6015,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="H8" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6020,10 +6041,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="H9" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6046,10 +6067,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="H10" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6072,10 +6093,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H11" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6101,7 +6122,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6124,10 +6145,10 @@
         <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H13" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6150,10 +6171,10 @@
         <v>1343</v>
       </c>
       <c r="G14" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="H14" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6176,10 +6197,10 @@
         <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H15" t="s">
-        <v>1777</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6202,10 +6223,10 @@
         <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="H16" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6228,10 +6249,10 @@
         <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="H17" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6254,10 +6275,10 @@
         <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="H18" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6280,7 +6301,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6303,10 +6324,10 @@
         <v>1348</v>
       </c>
       <c r="G20" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H20" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6332,7 +6353,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6358,7 +6379,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6381,10 +6402,10 @@
         <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="H23" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6407,10 +6428,10 @@
         <v>1346</v>
       </c>
       <c r="G24" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="H24" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6436,7 +6457,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6462,7 +6483,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6488,7 +6509,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6508,10 +6529,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="H28" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6534,10 +6555,10 @@
         <v>1350</v>
       </c>
       <c r="G29" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="H29" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6560,10 +6581,10 @@
         <v>1351</v>
       </c>
       <c r="G30" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="H30" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6586,10 +6607,10 @@
         <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="H31" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6612,10 +6633,10 @@
         <v>1352</v>
       </c>
       <c r="G32" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="H32" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6638,10 +6659,10 @@
         <v>1346</v>
       </c>
       <c r="G33" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H33" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6664,10 +6685,10 @@
         <v>1353</v>
       </c>
       <c r="G34" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="H34" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6690,10 +6711,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H35" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6716,10 +6737,10 @@
         <v>1347</v>
       </c>
       <c r="G36" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H36" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6742,10 +6763,10 @@
         <v>1276</v>
       </c>
       <c r="G37" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="H37" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6768,10 +6789,10 @@
         <v>1354</v>
       </c>
       <c r="G38" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="H38" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6794,10 +6815,10 @@
         <v>1349</v>
       </c>
       <c r="G39" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="H39" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6820,10 +6841,10 @@
         <v>1355</v>
       </c>
       <c r="G40" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="H40" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6846,10 +6867,10 @@
         <v>1356</v>
       </c>
       <c r="G41" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="H41" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6872,10 +6893,10 @@
         <v>1357</v>
       </c>
       <c r="G42" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="H42" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6898,10 +6919,10 @@
         <v>1358</v>
       </c>
       <c r="G43" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="H43" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6927,7 +6948,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6953,7 +6974,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1780</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6979,7 +7000,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7002,10 +7023,10 @@
         <v>1354</v>
       </c>
       <c r="G47" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="H47" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7028,10 +7049,10 @@
         <v>1359</v>
       </c>
       <c r="G48" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="H48" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7054,10 +7075,10 @@
         <v>1360</v>
       </c>
       <c r="G49" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="H49" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7080,10 +7101,10 @@
         <v>1285</v>
       </c>
       <c r="G50" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="H50" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7106,10 +7127,10 @@
         <v>1361</v>
       </c>
       <c r="G51" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="H51" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7132,10 +7153,10 @@
         <v>1362</v>
       </c>
       <c r="G52" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="H52" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7158,10 +7179,10 @@
         <v>1343</v>
       </c>
       <c r="G53" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="H53" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7184,10 +7205,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="H54" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7210,10 +7231,10 @@
         <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="H55" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7236,10 +7257,10 @@
         <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="H56" t="s">
-        <v>1784</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7262,10 +7283,10 @@
         <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="H57" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7288,10 +7309,10 @@
         <v>1366</v>
       </c>
       <c r="G58" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="H58" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7314,10 +7335,10 @@
         <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="H59" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7340,10 +7361,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="H60" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7369,7 +7390,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7392,10 +7413,10 @@
         <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="H62" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7418,10 +7439,10 @@
         <v>1348</v>
       </c>
       <c r="G63" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="H63" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7444,10 +7465,10 @@
         <v>1369</v>
       </c>
       <c r="G64" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="H64" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7470,10 +7491,10 @@
         <v>1347</v>
       </c>
       <c r="G65" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="H65" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7496,10 +7517,10 @@
         <v>1348</v>
       </c>
       <c r="G66" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="H66" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7522,10 +7543,10 @@
         <v>1354</v>
       </c>
       <c r="G67" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="H67" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7551,7 +7572,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7574,10 +7595,10 @@
         <v>1370</v>
       </c>
       <c r="G69" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H69" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7600,10 +7621,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="H70" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7629,7 +7650,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7652,10 +7673,10 @@
         <v>1371</v>
       </c>
       <c r="G72" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="H72" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7678,10 +7699,10 @@
         <v>1372</v>
       </c>
       <c r="G73" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="H73" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7704,10 +7725,10 @@
         <v>1373</v>
       </c>
       <c r="G74" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="H74" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7733,7 +7754,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7753,13 +7774,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1534</v>
       </c>
       <c r="H76" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7782,10 +7803,10 @@
         <v>1285</v>
       </c>
       <c r="G77" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="H77" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7808,10 +7829,10 @@
         <v>1346</v>
       </c>
       <c r="G78" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="H78" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7834,10 +7855,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="H79" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7860,10 +7881,10 @@
         <v>1374</v>
       </c>
       <c r="G80" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="H80" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7886,10 +7907,10 @@
         <v>1375</v>
       </c>
       <c r="G81" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="H81" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7912,10 +7933,10 @@
         <v>1376</v>
       </c>
       <c r="G82" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="H82" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7941,7 +7962,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7967,7 +7988,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7990,10 +8011,10 @@
         <v>1278</v>
       </c>
       <c r="G85" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="H85" t="s">
-        <v>1787</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8016,10 +8037,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="H86" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8042,10 +8063,10 @@
         <v>1339</v>
       </c>
       <c r="G87" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="H87" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8068,10 +8089,10 @@
         <v>1377</v>
       </c>
       <c r="G88" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="H88" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8094,10 +8115,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="H89" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8123,7 +8144,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8146,10 +8167,10 @@
         <v>1378</v>
       </c>
       <c r="G91" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="H91" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8172,10 +8193,10 @@
         <v>1379</v>
       </c>
       <c r="G92" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="H92" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8198,10 +8219,10 @@
         <v>1360</v>
       </c>
       <c r="G93" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="H93" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8224,10 +8245,10 @@
         <v>1380</v>
       </c>
       <c r="G94" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="H94" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8250,10 +8271,10 @@
         <v>1373</v>
       </c>
       <c r="G95" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="H95" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8276,10 +8297,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="H96" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8299,13 +8320,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1339</v>
+        <v>1357</v>
       </c>
       <c r="G97" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="H97" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8328,10 +8349,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="H98" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8351,13 +8372,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="G99" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="H99" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8377,13 +8398,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G100" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="H100" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8406,10 +8427,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H101" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8432,10 +8453,10 @@
         <v>1371</v>
       </c>
       <c r="G102" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="H102" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8461,7 +8482,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8484,10 +8505,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="H104" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8513,7 +8534,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8533,13 +8554,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G106" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="H106" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8562,10 +8583,10 @@
         <v>1371</v>
       </c>
       <c r="G107" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="H107" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8585,13 +8606,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G108" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="H108" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8611,10 +8632,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H109" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8637,10 +8658,10 @@
         <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="H110" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8663,10 +8684,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="H111" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8686,13 +8707,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G112" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="H112" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8712,13 +8733,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1354</v>
+        <v>1285</v>
       </c>
       <c r="G113" t="s">
-        <v>1555</v>
+        <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8744,7 +8765,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8764,13 +8785,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G115" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="H115" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8793,10 +8814,10 @@
         <v>1357</v>
       </c>
       <c r="G116" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="H116" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8819,10 +8840,10 @@
         <v>1374</v>
       </c>
       <c r="G117" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="H117" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8845,10 +8866,10 @@
         <v>1372</v>
       </c>
       <c r="G118" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="H118" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8868,13 +8889,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G119" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="H119" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8900,7 +8921,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8926,7 +8947,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8952,7 +8973,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8978,7 +8999,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9001,10 +9022,10 @@
         <v>1348</v>
       </c>
       <c r="G124" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="H124" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9027,10 +9048,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="H125" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9056,7 +9077,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9079,10 +9100,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H127" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9105,10 +9126,10 @@
         <v>1377</v>
       </c>
       <c r="G128" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H128" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9128,13 +9149,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G129" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="H129" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9157,10 +9178,10 @@
         <v>1357</v>
       </c>
       <c r="G130" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="H130" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9180,13 +9201,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G131" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="H131" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9206,13 +9227,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1369</v>
+        <v>1390</v>
       </c>
       <c r="G132" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="H132" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9232,13 +9253,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G133" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="H133" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9261,10 +9282,10 @@
         <v>1343</v>
       </c>
       <c r="G134" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="H134" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9284,13 +9305,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="G135" t="s">
-        <v>1065</v>
+        <v>1575</v>
       </c>
       <c r="H135" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9313,10 +9334,10 @@
         <v>1285</v>
       </c>
       <c r="G136" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="H136" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9339,10 +9360,10 @@
         <v>1357</v>
       </c>
       <c r="G137" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="H137" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9365,10 +9386,10 @@
         <v>1354</v>
       </c>
       <c r="G138" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="H138" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9391,10 +9412,10 @@
         <v>1375</v>
       </c>
       <c r="G139" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="H139" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9417,10 +9438,10 @@
         <v>1357</v>
       </c>
       <c r="G140" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="H140" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9446,7 +9467,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9466,13 +9487,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G142" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="H142" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9495,10 +9516,10 @@
         <v>1377</v>
       </c>
       <c r="G143" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="H143" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9518,13 +9539,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1339</v>
+        <v>1393</v>
       </c>
       <c r="G144" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="H144" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9544,13 +9565,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G145" t="s">
-        <v>989</v>
+        <v>1582</v>
       </c>
       <c r="H145" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9573,10 +9594,10 @@
         <v>1377</v>
       </c>
       <c r="G146" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="H146" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9602,7 +9623,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9625,10 +9646,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="H148" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9648,13 +9669,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1391</v>
+        <v>1357</v>
       </c>
       <c r="G149" t="s">
-        <v>1577</v>
+        <v>1584</v>
       </c>
       <c r="H149" t="s">
-        <v>1790</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9674,13 +9695,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G150" t="s">
-        <v>1578</v>
+        <v>1585</v>
       </c>
       <c r="H150" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9700,13 +9721,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G151" t="s">
-        <v>1579</v>
+        <v>1586</v>
       </c>
       <c r="H151" t="s">
-        <v>1791</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9729,10 +9750,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H152" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9752,13 +9773,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G153" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
       <c r="H153" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9778,13 +9799,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="G154" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="H154" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9804,13 +9825,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1583</v>
+        <v>1590</v>
       </c>
       <c r="H155" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9830,13 +9851,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1580</v>
+        <v>1591</v>
       </c>
       <c r="H156" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9859,10 +9880,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H157" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9885,10 +9906,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="H158" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9911,10 +9932,10 @@
         <v>1343</v>
       </c>
       <c r="G159" t="s">
-        <v>1584</v>
+        <v>1592</v>
       </c>
       <c r="H159" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9937,10 +9958,10 @@
         <v>1354</v>
       </c>
       <c r="G160" t="s">
-        <v>1585</v>
+        <v>1593</v>
       </c>
       <c r="H160" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9959,8 +9980,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9980,13 +10007,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1343</v>
+        <v>1380</v>
       </c>
       <c r="G162" t="s">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="H162" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10012,7 +10039,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10035,10 +10062,10 @@
         <v>1354</v>
       </c>
       <c r="G164" t="s">
-        <v>1587</v>
+        <v>1595</v>
       </c>
       <c r="H164" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10058,13 +10085,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G165" t="s">
-        <v>1588</v>
+        <v>1596</v>
       </c>
       <c r="H165" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10087,10 +10114,10 @@
         <v>1354</v>
       </c>
       <c r="G166" t="s">
-        <v>1589</v>
+        <v>1597</v>
       </c>
       <c r="H166" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10110,13 +10137,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G167" t="s">
-        <v>1590</v>
+        <v>1598</v>
       </c>
       <c r="H167" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10136,13 +10163,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G168" t="s">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="H168" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10162,13 +10189,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G169" t="s">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="H169" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10188,13 +10215,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G170" t="s">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="H170" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10217,10 +10244,10 @@
         <v>1343</v>
       </c>
       <c r="G171" t="s">
-        <v>1594</v>
+        <v>1602</v>
       </c>
       <c r="H171" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10240,13 +10267,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="G172" t="s">
-        <v>1595</v>
+        <v>1603</v>
       </c>
       <c r="H172" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10269,10 +10296,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1596</v>
+        <v>1604</v>
       </c>
       <c r="H173" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10295,10 +10322,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="H174" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10318,13 +10345,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G175" t="s">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="H175" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10347,10 +10374,10 @@
         <v>1343</v>
       </c>
       <c r="G176" t="s">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="H176" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10370,13 +10397,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G177" t="s">
-        <v>1599</v>
+        <v>1607</v>
       </c>
       <c r="H177" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10396,13 +10423,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="G178" t="s">
-        <v>1600</v>
+        <v>1608</v>
       </c>
       <c r="H178" t="s">
-        <v>1792</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10422,13 +10449,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G179" t="s">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="H179" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10448,13 +10475,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G180" t="s">
-        <v>1602</v>
+        <v>1610</v>
       </c>
       <c r="H180" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10477,10 +10504,10 @@
         <v>1346</v>
       </c>
       <c r="G181" t="s">
-        <v>1603</v>
+        <v>1611</v>
       </c>
       <c r="H181" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10506,7 +10533,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10529,10 +10556,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="H183" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10552,13 +10579,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1604</v>
+        <v>1612</v>
       </c>
       <c r="H184" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10581,10 +10608,10 @@
         <v>1348</v>
       </c>
       <c r="G185" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H185" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10607,10 +10634,10 @@
         <v>1343</v>
       </c>
       <c r="G186" t="s">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="H186" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10633,10 +10660,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="H187" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10662,7 +10689,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10688,7 +10715,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10714,7 +10741,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10737,10 +10764,10 @@
         <v>1343</v>
       </c>
       <c r="G191" t="s">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="H191" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10763,10 +10790,10 @@
         <v>1347</v>
       </c>
       <c r="G192" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="H192" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10786,13 +10813,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G193" t="s">
-        <v>1607</v>
+        <v>1615</v>
       </c>
       <c r="H193" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10815,10 +10842,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1596</v>
+        <v>1604</v>
       </c>
       <c r="H194" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10844,7 +10871,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10867,10 +10894,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H196" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10896,7 +10923,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10916,7 +10943,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10939,10 +10966,10 @@
         <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1608</v>
+        <v>1616</v>
       </c>
       <c r="H199" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10965,10 +10992,10 @@
         <v>1346</v>
       </c>
       <c r="G200" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
       <c r="H200" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10991,10 +11018,10 @@
         <v>1346</v>
       </c>
       <c r="G201" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
       <c r="H201" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11014,13 +11041,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G202" t="s">
-        <v>1610</v>
+        <v>1618</v>
       </c>
       <c r="H202" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11046,7 +11073,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11066,13 +11093,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G204" t="s">
-        <v>1611</v>
+        <v>1619</v>
       </c>
       <c r="H204" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11092,13 +11119,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1352</v>
+        <v>1409</v>
       </c>
       <c r="G205" t="s">
-        <v>1612</v>
+        <v>1620</v>
       </c>
       <c r="H205" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11118,13 +11145,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="G206" t="s">
-        <v>1613</v>
+        <v>1621</v>
       </c>
       <c r="H206" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11150,7 +11177,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11173,10 +11200,10 @@
         <v>1354</v>
       </c>
       <c r="G208" t="s">
-        <v>1614</v>
+        <v>1622</v>
       </c>
       <c r="H208" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11196,13 +11223,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="G209" t="s">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="H209" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11225,10 +11252,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1616</v>
+        <v>1624</v>
       </c>
       <c r="H210" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11248,13 +11275,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="G211" t="s">
-        <v>1617</v>
+        <v>1625</v>
       </c>
       <c r="H211" t="s">
-        <v>1793</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11277,10 +11304,10 @@
         <v>1377</v>
       </c>
       <c r="G212" t="s">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="H212" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11303,10 +11330,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H213" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11329,10 +11356,10 @@
         <v>1373</v>
       </c>
       <c r="G214" t="s">
-        <v>1619</v>
+        <v>1627</v>
       </c>
       <c r="H214" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11355,10 +11382,10 @@
         <v>1357</v>
       </c>
       <c r="G215" t="s">
-        <v>1620</v>
+        <v>1628</v>
       </c>
       <c r="H215" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11384,7 +11411,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11404,13 +11431,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G217" t="s">
-        <v>1621</v>
+        <v>1629</v>
       </c>
       <c r="H217" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11430,13 +11457,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="G218" t="s">
-        <v>1622</v>
+        <v>1630</v>
       </c>
       <c r="H218" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11456,13 +11483,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="G219" t="s">
-        <v>1623</v>
+        <v>1631</v>
       </c>
       <c r="H219" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11482,13 +11509,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="G220" t="s">
-        <v>1624</v>
+        <v>1632</v>
       </c>
       <c r="H220" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11514,7 +11541,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11537,10 +11564,10 @@
         <v>1348</v>
       </c>
       <c r="G222" t="s">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="H222" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11560,13 +11587,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="G223" t="s">
-        <v>1626</v>
+        <v>1634</v>
       </c>
       <c r="H223" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11586,13 +11613,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="G224" t="s">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="H224" t="s">
-        <v>1795</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11618,7 +11645,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11644,7 +11671,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11670,7 +11697,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11693,10 +11720,10 @@
         <v>1343</v>
       </c>
       <c r="G228" t="s">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="H228" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11716,13 +11743,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="G229" t="s">
-        <v>1629</v>
+        <v>1637</v>
       </c>
       <c r="H229" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11745,10 +11772,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="H230" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11774,7 +11801,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11797,10 +11824,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1631</v>
+        <v>1639</v>
       </c>
       <c r="H232" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11823,10 +11850,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="H233" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11846,13 +11873,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G234" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="H234" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11872,13 +11899,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="G235" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
       <c r="H235" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11901,10 +11928,10 @@
         <v>1380</v>
       </c>
       <c r="G236" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
       <c r="H236" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11927,10 +11954,10 @@
         <v>1347</v>
       </c>
       <c r="G237" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
       <c r="H237" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11950,13 +11977,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G238" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
       <c r="H238" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11982,7 +12009,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12002,13 +12029,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G240" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="H240" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12031,10 +12058,10 @@
         <v>1343</v>
       </c>
       <c r="G241" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
       <c r="H241" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12057,10 +12084,10 @@
         <v>1377</v>
       </c>
       <c r="G242" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="H242" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12083,10 +12110,10 @@
         <v>1348</v>
       </c>
       <c r="G243" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H243" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12106,13 +12133,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G244" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="H244" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12135,10 +12162,10 @@
         <v>1372</v>
       </c>
       <c r="G245" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="H245" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12164,7 +12191,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12187,10 +12214,10 @@
         <v>1348</v>
       </c>
       <c r="G247" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="H247" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12216,7 +12243,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12236,13 +12263,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="G249" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="H249" t="s">
-        <v>1777</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12265,10 +12292,10 @@
         <v>1346</v>
       </c>
       <c r="G250" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="H250" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12288,13 +12315,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="G251" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="H251" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12314,13 +12341,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="G252" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="H252" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12343,10 +12370,10 @@
         <v>1348</v>
       </c>
       <c r="G253" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="H253" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12372,7 +12399,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12395,10 +12422,10 @@
         <v>1348</v>
       </c>
       <c r="G255" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="H255" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12421,10 +12448,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="H256" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12447,10 +12474,10 @@
         <v>1346</v>
       </c>
       <c r="G257" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="H257" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12470,13 +12497,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G258" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="H258" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12502,7 +12529,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12525,10 +12552,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="H260" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12548,13 +12575,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="G261" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="H261" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12580,7 +12607,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12603,10 +12630,10 @@
         <v>1349</v>
       </c>
       <c r="G263" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="H263" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12626,13 +12653,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="G264" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="H264" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12652,13 +12679,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G265" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="H265" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12678,13 +12705,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G266" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="H266" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12704,13 +12731,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="G267" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="H267" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12730,13 +12757,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G268" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="H268" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12759,10 +12786,10 @@
         <v>1371</v>
       </c>
       <c r="G269" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="H269" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12788,7 +12815,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12808,13 +12835,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="G271" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="H271" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12834,13 +12861,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G272" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="H272" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12863,10 +12890,10 @@
         <v>1359</v>
       </c>
       <c r="G273" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="H273" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12889,10 +12916,10 @@
         <v>1349</v>
       </c>
       <c r="G274" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="H274" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12912,13 +12939,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G275" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="H275" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12938,13 +12965,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="G276" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="H276" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12967,10 +12994,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H277" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12993,10 +13020,10 @@
         <v>1348</v>
       </c>
       <c r="G278" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="H278" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13016,13 +13043,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G279" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="H279" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13048,7 +13075,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13071,7 +13098,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13091,13 +13118,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G282" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="H282" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13123,7 +13150,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13143,13 +13170,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G284" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="H284" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13172,10 +13199,10 @@
         <v>1348</v>
       </c>
       <c r="G285" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="H285" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13195,13 +13222,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="G286" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="H286" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13221,13 +13248,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G287" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="H287" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13250,10 +13277,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="H288" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13276,10 +13303,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1595</v>
+        <v>1678</v>
       </c>
       <c r="H289" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13299,13 +13326,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G290" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="H290" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13328,10 +13355,10 @@
         <v>1348</v>
       </c>
       <c r="G291" t="s">
-        <v>1671</v>
+        <v>1680</v>
       </c>
       <c r="H291" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13354,10 +13381,10 @@
         <v>1348</v>
       </c>
       <c r="G292" t="s">
-        <v>1672</v>
+        <v>1681</v>
       </c>
       <c r="H292" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13377,13 +13404,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G293" t="s">
-        <v>1673</v>
+        <v>1682</v>
       </c>
       <c r="H293" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13406,10 +13433,10 @@
         <v>1343</v>
       </c>
       <c r="G294" t="s">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="H294" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13435,7 +13462,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13458,10 +13485,10 @@
         <v>1377</v>
       </c>
       <c r="G296" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H296" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13481,13 +13508,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="G297" t="s">
-        <v>1674</v>
+        <v>1683</v>
       </c>
       <c r="H297" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13507,13 +13534,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1437</v>
+        <v>1343</v>
       </c>
       <c r="G298" t="s">
-        <v>1675</v>
+        <v>1684</v>
       </c>
       <c r="H298" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13539,7 +13566,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13559,13 +13586,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G300" t="s">
-        <v>1676</v>
+        <v>1685</v>
       </c>
       <c r="H300" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13585,13 +13612,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G301" t="s">
-        <v>1677</v>
+        <v>1686</v>
       </c>
       <c r="H301" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13611,13 +13638,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="G302" t="s">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="H302" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13637,13 +13664,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1341</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1679</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13669,7 +13696,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13695,7 +13722,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13718,10 +13745,10 @@
         <v>1348</v>
       </c>
       <c r="G306" t="s">
-        <v>1671</v>
+        <v>1680</v>
       </c>
       <c r="H306" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13747,7 +13774,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13770,10 +13797,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="H308" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13799,7 +13826,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13825,7 +13852,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13851,7 +13878,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13874,10 +13901,10 @@
         <v>1343</v>
       </c>
       <c r="G312" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="H312" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13903,7 +13930,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13929,7 +13956,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13949,13 +13976,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G315" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="H315" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13975,13 +14002,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1397</v>
+        <v>1442</v>
       </c>
       <c r="G316" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="H316" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14004,10 +14031,10 @@
         <v>1377</v>
       </c>
       <c r="G317" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H317" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14030,10 +14057,10 @@
         <v>1346</v>
       </c>
       <c r="G318" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="H318" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14052,8 +14079,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14073,13 +14106,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="G320" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="H320" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14099,13 +14132,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1343</v>
+        <v>1444</v>
       </c>
       <c r="G321" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="H321" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14125,13 +14158,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G322" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="H322" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14154,10 +14187,10 @@
         <v>1347</v>
       </c>
       <c r="G323" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="H323" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14180,10 +14213,10 @@
         <v>1359</v>
       </c>
       <c r="G324" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="H324" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14209,7 +14242,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14235,7 +14268,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14255,13 +14288,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="G327" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="H327" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14284,10 +14317,10 @@
         <v>1343</v>
       </c>
       <c r="G328" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="H328" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14307,13 +14340,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1437</v>
+        <v>1444</v>
       </c>
       <c r="G329" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="H329" t="s">
-        <v>1796</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14336,10 +14369,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="H330" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14359,13 +14392,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G331" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="H331" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14388,10 +14421,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="H332" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14414,10 +14447,10 @@
         <v>1348</v>
       </c>
       <c r="G333" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="H333" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14443,7 +14476,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14466,10 +14499,10 @@
         <v>1350</v>
       </c>
       <c r="G335" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="H335" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14492,10 +14525,10 @@
         <v>1349</v>
       </c>
       <c r="G336" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="H336" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14518,10 +14551,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="H337" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14541,13 +14574,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="G338" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="H338" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14567,13 +14600,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1443</v>
+        <v>1390</v>
       </c>
       <c r="G339" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="H339" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14596,10 +14629,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="H340" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14619,13 +14652,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="G341" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="H341" t="s">
-        <v>1797</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14648,10 +14681,10 @@
         <v>1348</v>
       </c>
       <c r="G342" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H342" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14671,13 +14704,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="G343" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="H343" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14697,13 +14730,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G344" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="H344" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14726,10 +14759,10 @@
         <v>1346</v>
       </c>
       <c r="G345" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
       <c r="H345" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14749,13 +14782,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G346" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="H346" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14781,7 +14814,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14807,7 +14840,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14833,7 +14866,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14856,10 +14889,10 @@
         <v>1348</v>
       </c>
       <c r="G350" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H350" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14882,10 +14915,10 @@
         <v>1359</v>
       </c>
       <c r="G351" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="H351" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14905,13 +14938,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G352" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="H352" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14937,7 +14970,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14963,7 +14996,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14983,13 +15016,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G355" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="H355" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15015,7 +15048,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15035,13 +15068,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="G357" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="H357" t="s">
-        <v>1798</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15064,10 +15097,10 @@
         <v>1348</v>
       </c>
       <c r="G358" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H358" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15090,10 +15123,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="H359" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15119,7 +15152,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15139,13 +15172,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1449</v>
+        <v>1346</v>
       </c>
       <c r="G361" t="s">
-        <v>1706</v>
+        <v>1535</v>
       </c>
       <c r="H361" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15168,10 +15201,10 @@
         <v>1276</v>
       </c>
       <c r="G362" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="H362" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15191,13 +15224,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="G363" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="H363" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15217,13 +15250,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="G364" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
       <c r="H364" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15243,13 +15276,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="G365" t="s">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="H365" t="s">
-        <v>1799</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15272,10 +15305,10 @@
         <v>1343</v>
       </c>
       <c r="G366" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="H366" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15298,10 +15331,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="H367" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15324,10 +15357,10 @@
         <v>1354</v>
       </c>
       <c r="G368" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
       <c r="H368" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15350,10 +15383,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="H369" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15373,13 +15406,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="G370" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="H370" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15402,10 +15435,10 @@
         <v>1352</v>
       </c>
       <c r="G371" t="s">
-        <v>1712</v>
+        <v>1719</v>
       </c>
       <c r="H371" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15425,13 +15458,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="G372" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="H372" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15451,13 +15484,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
       <c r="G373" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="H373" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15477,7 +15510,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15503,7 +15536,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15523,13 +15556,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="G376" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="H376" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15549,13 +15582,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="G377" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="H377" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15575,13 +15608,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1354</v>
+        <v>1458</v>
       </c>
       <c r="G378" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="H378" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15601,13 +15634,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G379" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="H379" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15630,10 +15663,10 @@
         <v>1343</v>
       </c>
       <c r="G380" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
       <c r="H380" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15656,10 +15689,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="H381" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15679,13 +15712,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="G382" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="H382" t="s">
-        <v>1800</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15705,13 +15738,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="G383" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="H383" t="s">
-        <v>1791</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15731,13 +15764,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="G384" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="H384" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15760,10 +15793,10 @@
         <v>1359</v>
       </c>
       <c r="G385" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="H385" t="s">
-        <v>1790</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15783,13 +15816,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="G386" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="H386" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15812,10 +15845,10 @@
         <v>1352</v>
       </c>
       <c r="G387" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="H387" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15838,10 +15871,10 @@
         <v>1343</v>
       </c>
       <c r="G388" t="s">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="H388" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15864,10 +15897,10 @@
         <v>1343</v>
       </c>
       <c r="G389" t="s">
-        <v>1584</v>
+        <v>1592</v>
       </c>
       <c r="H389" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15887,13 +15920,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="G390" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="H390" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15916,10 +15949,10 @@
         <v>1347</v>
       </c>
       <c r="G391" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="H391" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15942,10 +15975,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H392" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15965,13 +15998,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="G393" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="H393" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15991,13 +16024,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G394" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="H394" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16020,10 +16053,10 @@
         <v>1380</v>
       </c>
       <c r="G395" t="s">
-        <v>1729</v>
+        <v>1736</v>
       </c>
       <c r="H395" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16046,10 +16079,10 @@
         <v>1343</v>
       </c>
       <c r="G396" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="H396" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16069,13 +16102,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G397" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="H397" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16101,7 +16134,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16121,13 +16154,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G399" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="H399" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16147,13 +16180,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G400" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
       <c r="H400" t="s">
-        <v>1801</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16179,7 +16212,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16202,10 +16235,10 @@
         <v>1352</v>
       </c>
       <c r="G402" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="H402" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16228,10 +16261,10 @@
         <v>1343</v>
       </c>
       <c r="G403" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="H403" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16251,13 +16284,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G404" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="H404" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16280,10 +16313,10 @@
         <v>1362</v>
       </c>
       <c r="G405" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="H405" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16309,7 +16342,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16329,13 +16362,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="G407" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
       <c r="H407" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16358,10 +16391,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1595</v>
+        <v>1678</v>
       </c>
       <c r="H408" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16387,7 +16420,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16413,7 +16446,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16433,13 +16466,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="G411" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
       <c r="H411" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16462,10 +16495,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H412" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16488,10 +16521,10 @@
         <v>1359</v>
       </c>
       <c r="G413" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="H413" t="s">
-        <v>1787</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16511,13 +16544,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="G414" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="H414" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16537,13 +16570,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G415" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="H415" t="s">
-        <v>1802</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16563,10 +16596,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="H416" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16589,10 +16622,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="H417" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16612,13 +16645,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1386</v>
+        <v>1467</v>
       </c>
       <c r="G418" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="H418" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16641,10 +16674,10 @@
         <v>1359</v>
       </c>
       <c r="G419" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="H419" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16667,10 +16700,10 @@
         <v>1338</v>
       </c>
       <c r="G420" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
       <c r="H420" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16690,13 +16723,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="G421" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="H421" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16719,10 +16752,10 @@
         <v>1359</v>
       </c>
       <c r="G422" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="H422" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16748,7 +16781,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16774,7 +16807,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16794,13 +16827,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="G425" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
       <c r="H425" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16820,13 +16853,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="G426" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="H426" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16849,7 +16882,7 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16872,10 +16905,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="H428" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16895,7 +16928,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16915,13 +16948,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G430" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="H430" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16944,10 +16977,10 @@
         <v>1343</v>
       </c>
       <c r="G431" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
       <c r="H431" t="s">
-        <v>1803</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16973,7 +17006,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16993,13 +17026,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="G433" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="H433" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17022,10 +17055,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
       <c r="H434" t="s">
-        <v>1799</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17045,13 +17078,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="G435" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
       <c r="H435" t="s">
-        <v>1790</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17074,10 +17107,10 @@
         <v>1341</v>
       </c>
       <c r="G436" t="s">
-        <v>1750</v>
+        <v>1757</v>
       </c>
       <c r="H436" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17096,14 +17129,8 @@
       <c r="E437" t="s">
         <v>1294</v>
       </c>
-      <c r="F437" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1751</v>
-      </c>
       <c r="H437" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17129,7 +17156,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17152,10 +17179,10 @@
         <v>1352</v>
       </c>
       <c r="G439" t="s">
-        <v>1752</v>
+        <v>1758</v>
       </c>
       <c r="H439" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17175,13 +17202,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="G440" t="s">
-        <v>1753</v>
+        <v>1759</v>
       </c>
       <c r="H440" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17201,13 +17228,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="G441" t="s">
-        <v>1754</v>
+        <v>1760</v>
       </c>
       <c r="H441" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17230,10 +17257,10 @@
         <v>1377</v>
       </c>
       <c r="G442" t="s">
-        <v>1755</v>
+        <v>1761</v>
       </c>
       <c r="H442" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17253,13 +17280,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1469</v>
+        <v>1347</v>
       </c>
       <c r="G443" t="s">
-        <v>1756</v>
+        <v>1762</v>
       </c>
       <c r="H443" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17282,10 +17309,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="H444" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17305,13 +17332,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="G445" t="s">
-        <v>1757</v>
+        <v>1763</v>
       </c>
       <c r="H445" t="s">
-        <v>1804</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17331,13 +17358,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1449</v>
+        <v>1474</v>
       </c>
       <c r="G446" t="s">
-        <v>1758</v>
+        <v>1764</v>
       </c>
       <c r="H446" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17360,10 +17387,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1759</v>
+        <v>1765</v>
       </c>
       <c r="H447" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17386,10 +17413,10 @@
         <v>1346</v>
       </c>
       <c r="G448" t="s">
-        <v>1760</v>
+        <v>1766</v>
       </c>
       <c r="H448" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17409,13 +17436,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G449" t="s">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="H449" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17441,7 +17468,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17467,7 +17494,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17490,10 +17517,10 @@
         <v>1352</v>
       </c>
       <c r="G452" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="H452" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17513,13 +17540,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="G453" t="s">
-        <v>1763</v>
+        <v>1769</v>
       </c>
       <c r="H453" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17539,13 +17566,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="G454" t="s">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="H454" t="s">
-        <v>1791</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17565,13 +17592,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1373</v>
+        <v>1477</v>
       </c>
       <c r="G455" t="s">
-        <v>1765</v>
+        <v>1771</v>
       </c>
       <c r="H455" t="s">
-        <v>1796</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17591,13 +17618,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="G456" t="s">
-        <v>1766</v>
+        <v>1772</v>
       </c>
       <c r="H456" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17617,13 +17644,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="G457" t="s">
-        <v>1767</v>
+        <v>1773</v>
       </c>
       <c r="H457" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17649,7 +17676,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1805</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17669,13 +17696,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="G459" t="s">
-        <v>1768</v>
+        <v>1774</v>
       </c>
       <c r="H459" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17698,10 +17725,10 @@
         <v>1341</v>
       </c>
       <c r="G460" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="H460" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17721,13 +17748,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G461" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="H461" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17753,7 +17780,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17773,13 +17800,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1359</v>
       </c>
       <c r="G463" t="s">
-        <v>1630</v>
+        <v>1777</v>
       </c>
       <c r="H463" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/plsa-partial-ner-fasttext-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-fasttext-money.xlsx
@@ -4519,7 +4519,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4606,7 +4606,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4669,7 +4669,7 @@
     <t>moules|lobster|ravioli</t>
   </si>
   <si>
-    <t>price|$8.00!-</t>
+    <t>price|$8.00</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4810,7 +4810,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18!-</t>
+    <t>food|menu|$18</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4819,7 +4819,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6!-</t>
+    <t>price|reasonable|dish|$3-6</t>
   </si>
   <si>
     <t>great|well</t>
@@ -4876,7 +4876,7 @@
     <t>price|restaurant|wine|menu</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|price|would</t>
@@ -4984,7 +4984,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -5005,7 +5005,7 @@
     <t>good|price|though|even|food</t>
   </si>
   <si>
-    <t>good|price|though|$24!-</t>
+    <t>good|price|though|$24</t>
   </si>
   <si>
     <t>special|wait</t>
@@ -5014,7 +5014,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>price|wine</t>
@@ -5092,7 +5092,7 @@
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like|100 dollar!-</t>
+    <t>great|like|100 dollar</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5104,13 +5104,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|$*!-</t>
+    <t>staff|wait|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5209,16 +5209,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60!-</t>
+    <t>good|though|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5233,19 +5233,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5269,10 +5269,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500!-</t>
+    <t>service|price|dish|$10</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5287,13 +5287,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5305,10 +5305,10 @@
     <t>restaurant|never</t>
   </si>
   <si>
-    <t>place|price|restaurant|would|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|price|restaurant|would|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5317,16 +5317,16 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
-  </si>
-  <si>
-    <t>menu|$29!-</t>
+    <t>stone|bowl|$2</t>
+  </si>
+  <si>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500!-</t>
+    <t>service|rude|even|well|$500</t>
   </si>
   <si>
     <t>service|great|good|salad</t>
@@ -5335,13 +5335,13 @@
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24!-</t>
+    <t>restaurant|never|$24</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
